--- a/evograph/analysis/parallelism.xlsx
+++ b/evograph/analysis/parallelism.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="-28800" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,20 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>kValue</t>
+  </si>
+  <si>
+    <t>Threads</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -336,12 +350,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="D6:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="6" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <f>2*E7</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <f t="shared" ref="E9:E17" si="0">2*E8</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="16" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>512</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/evograph/analysis/parallelism.xlsx
+++ b/evograph/analysis/parallelism.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="-10000" yWindow="460" windowWidth="10000" windowHeight="11340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>kValue</t>
   </si>
@@ -37,11 +37,23 @@
   <si>
     <t>Time</t>
   </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>sf=1.txt</t>
+  </si>
+  <si>
+    <t>toy.txt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -71,8 +83,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -350,88 +364,489 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D6:F16"/>
+  <dimension ref="C6:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="17.83203125" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="6" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
       <c r="D6" t="s">
         <v>0</v>
       </c>
       <c r="E6" t="s">
         <v>1</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="8" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F7" s="1">
+        <v>1.15274E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E8">
         <f>2*E7</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F8" s="1">
+        <v>8.3987999999999997E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E9">
-        <f t="shared" ref="E9:E17" si="0">2*E8</f>
+        <f t="shared" ref="E9:E13" si="0">2*E8</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F9" s="1">
+        <v>7.1804E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E10">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F10" s="1">
+        <v>7.2487999999999997E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E11">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F11" s="1">
+        <v>7.4922000000000001E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E12">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F12" s="1">
+        <v>8.5381999999999993E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E13">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-    </row>
-    <row r="14" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F13" s="1">
+        <v>7.2414000000000003E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E14">
-        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1.9314000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>110</v>
+      </c>
+      <c r="F15" s="1">
+        <v>8.6098000000000008E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E16">
         <v>128</v>
       </c>
-    </row>
-    <row r="15" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>256</v>
-      </c>
-    </row>
-    <row r="16" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>512</v>
+      <c r="F16" s="1">
+        <v>9.2213999999999994E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>150</v>
+      </c>
+      <c r="F17" s="1">
+        <v>8.9671999999999998E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>200</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1.12254E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>250</v>
+      </c>
+      <c r="F19" s="1">
+        <v>8.6800000000000002E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <v>300</v>
+      </c>
+      <c r="F20" s="1">
+        <v>3.1381199999999998E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <v>400</v>
+      </c>
+      <c r="F21" s="1">
+        <v>3.9607000000000003E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>9.7339599999999998E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <f>2*E22</f>
+        <v>2</v>
+      </c>
+      <c r="F23" s="1">
+        <v>4.6787200000000001E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <f t="shared" ref="E24:E28" si="1">2*E23</f>
+        <v>4</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1.60602E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1.53752E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1.66334E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1.7742000000000001E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="F28" s="1">
+        <v>2.3939800000000001E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E29">
+        <v>100</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1.4759400000000001E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E30">
+        <v>110</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1.47478E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E31">
+        <v>128</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1.4885000000000001E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E32">
+        <v>150</v>
+      </c>
+      <c r="F32" s="1">
+        <v>8.6694999999999994E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E33">
+        <v>200</v>
+      </c>
+      <c r="F33" s="1">
+        <v>8.7045999999999998E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E34">
+        <v>250</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0.13262560000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E35">
+        <v>300</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1.7100400000000002E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E36">
+        <v>400</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.1086776</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D37">
+        <v>128</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1">
+        <v>6.8772216999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38" s="1">
+        <v>9.0719442000000008</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E39">
+        <v>4</v>
+      </c>
+      <c r="F39" s="1">
+        <v>10.612366400000001</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E40">
+        <v>8</v>
+      </c>
+      <c r="F40" s="1">
+        <v>5.9746497999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E41">
+        <v>16</v>
+      </c>
+      <c r="F41" s="1">
+        <v>4.5767217999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E42">
+        <v>32</v>
+      </c>
+      <c r="F42" s="1">
+        <v>5.0130847999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E43">
+        <v>64</v>
+      </c>
+      <c r="F43" s="1">
+        <v>5.7139319999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E44">
+        <v>100</v>
+      </c>
+      <c r="F44" s="1">
+        <v>9.4121723999999993</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E45">
+        <v>110</v>
+      </c>
+      <c r="F45" s="1">
+        <v>6.2166410000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" s="1">
+        <v>629.74699999999996</v>
+      </c>
+      <c r="G46" s="2">
+        <v>4.6449421296296291E-3</v>
+      </c>
+      <c r="H46" s="2">
+        <v>7.4346412037037029E-3</v>
+      </c>
+      <c r="I46" s="2">
+        <v>9.7866435185185192E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E50">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E51">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="52" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E52">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E53">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="54" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E54">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="55" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E56">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E57">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E58">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E59">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="60" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E60">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E61">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="62" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E62">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="63" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D63">
+        <v>128</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E65">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/evograph/analysis/parallelism.xlsx
+++ b/evograph/analysis/parallelism.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-10000" yWindow="460" windowWidth="10000" windowHeight="11340" tabRatio="500"/>
+    <workbookView xWindow="-9980" yWindow="460" windowWidth="10000" windowHeight="11340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>kValue</t>
   </si>
@@ -45,6 +45,24 @@
   </si>
   <si>
     <t>toy.txt</t>
+  </si>
+  <si>
+    <t>10:46.228023</t>
+  </si>
+  <si>
+    <t>12:33.418205</t>
+  </si>
+  <si>
+    <t>11:32.669576</t>
+  </si>
+  <si>
+    <t>3:29.068530</t>
+  </si>
+  <si>
+    <t>4:51.268454</t>
+  </si>
+  <si>
+    <t>6:22.498166</t>
   </si>
 </sst>
 </file>
@@ -86,7 +104,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -364,15 +382,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C6:I65"/>
+  <dimension ref="C6:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="D39" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="17.83203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="3:6" x14ac:dyDescent="0.2">
@@ -738,116 +757,211 @@
       <c r="F46" s="1">
         <v>629.74699999999996</v>
       </c>
-      <c r="G46" s="2">
-        <v>4.6449421296296291E-3</v>
-      </c>
-      <c r="H46" s="2">
-        <v>7.4346412037037029E-3</v>
-      </c>
-      <c r="I46" s="2">
-        <v>9.7866435185185192E-3</v>
-      </c>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
     </row>
     <row r="47" spans="3:9" x14ac:dyDescent="0.2">
       <c r="E47">
         <v>2</v>
       </c>
+      <c r="F47" s="1">
+        <v>697.43860133299995</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="48" spans="3:9" x14ac:dyDescent="0.2">
       <c r="E48">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F48" s="1">
+        <v>294.27833329999999</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E49">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F49" s="1">
+        <v>44.271916300000001</v>
+      </c>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E50">
+        <v>110</v>
+      </c>
+      <c r="F50" s="1">
+        <v>65.442959000000002</v>
+      </c>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="E51">
         <v>200</v>
       </c>
-    </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E51">
+      <c r="F51" s="1">
+        <v>85.492515999999995</v>
+      </c>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="E52">
         <v>250</v>
       </c>
-    </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E52">
+      <c r="F52" s="1">
+        <v>108.505737</v>
+      </c>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="E53">
         <v>300</v>
       </c>
-    </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E53">
+      <c r="F53" s="1">
+        <v>130.461792</v>
+      </c>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="E54">
         <v>400</v>
       </c>
-    </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E54">
+      <c r="F54" s="1">
+        <v>165.581974</v>
+      </c>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="E55">
         <v>1000</v>
       </c>
-    </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D55">
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D56">
         <v>3</v>
       </c>
-      <c r="E55">
+      <c r="E56">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E56">
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="E57">
         <v>8</v>
       </c>
-    </row>
-    <row r="57" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E57">
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="E58">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E58">
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="E59">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E59">
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="E60">
         <v>250</v>
       </c>
-    </row>
-    <row r="60" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E60">
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="E61">
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E61">
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+    </row>
+    <row r="62" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="E62">
         <v>400</v>
       </c>
-    </row>
-    <row r="62" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E62">
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+    </row>
+    <row r="63" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="E63">
         <v>1000</v>
       </c>
-    </row>
-    <row r="63" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D63">
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+    </row>
+    <row r="64" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D64">
         <v>128</v>
       </c>
-      <c r="E63">
+      <c r="E64">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E64">
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+    </row>
+    <row r="65" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E65">
         <v>2</v>
       </c>
-    </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E65">
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+    </row>
+    <row r="66" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E66">
         <v>110</v>
       </c>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/evograph/analysis/parallelism.xlsx
+++ b/evograph/analysis/parallelism.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>kValue</t>
   </si>
@@ -47,22 +47,7 @@
     <t>toy.txt</t>
   </si>
   <si>
-    <t>10:46.228023</t>
-  </si>
-  <si>
-    <t>12:33.418205</t>
-  </si>
-  <si>
-    <t>11:32.669576</t>
-  </si>
-  <si>
-    <t>3:29.068530</t>
-  </si>
-  <si>
-    <t>4:51.268454</t>
-  </si>
-  <si>
-    <t>6:22.498166</t>
+    <t>optimal</t>
   </si>
 </sst>
 </file>
@@ -382,10 +367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C6:I66"/>
+  <dimension ref="C6:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D39" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -768,15 +753,9 @@
       <c r="F47" s="1">
         <v>697.43860133299995</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
     </row>
     <row r="48" spans="3:9" x14ac:dyDescent="0.2">
       <c r="E48">
@@ -785,15 +764,9 @@
       <c r="F48" s="1">
         <v>294.27833329999999</v>
       </c>
-      <c r="G48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
     </row>
     <row r="49" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E49">
@@ -874,7 +847,10 @@
         <v>3</v>
       </c>
       <c r="E56">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F56" s="1">
+        <v>2902</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
@@ -882,7 +858,10 @@
     </row>
     <row r="57" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E57">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="F57" s="1">
+        <v>359.95631300000002</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
@@ -890,7 +869,10 @@
     </row>
     <row r="58" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E58">
-        <v>100</v>
+        <v>8</v>
+      </c>
+      <c r="F58" s="1">
+        <v>228.01516000000001</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
@@ -898,7 +880,10 @@
     </row>
     <row r="59" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E59">
-        <v>200</v>
+        <v>100</v>
+      </c>
+      <c r="F59" s="1">
+        <v>194.46214000000001</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
@@ -906,7 +891,10 @@
     </row>
     <row r="60" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E60">
-        <v>250</v>
+        <v>110</v>
+      </c>
+      <c r="F60" s="1">
+        <v>285.734759</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
@@ -914,7 +902,10 @@
     </row>
     <row r="61" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E61">
-        <v>300</v>
+        <v>200</v>
+      </c>
+      <c r="F61" s="1">
+        <v>496.19373999999999</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
@@ -922,7 +913,7 @@
     </row>
     <row r="62" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E62">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
@@ -930,38 +921,43 @@
     </row>
     <row r="63" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E63">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D64">
-        <v>128</v>
-      </c>
       <c r="E64">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D65">
+        <v>128</v>
+      </c>
       <c r="E65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
     </row>
-    <row r="66" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E66">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
+    </row>
+    <row r="67" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="E67" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/evograph/analysis/parallelism.xlsx
+++ b/evograph/analysis/parallelism.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-9980" yWindow="460" windowWidth="10000" windowHeight="11340" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="10000" windowHeight="16320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -367,10 +367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C6:I67"/>
+  <dimension ref="C6:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -485,7 +485,7 @@
         <v>9.2213999999999994E-3</v>
       </c>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:8" x14ac:dyDescent="0.2">
       <c r="E17">
         <v>150</v>
       </c>
@@ -493,7 +493,7 @@
         <v>8.9671999999999998E-3</v>
       </c>
     </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:8" x14ac:dyDescent="0.2">
       <c r="E18">
         <v>200</v>
       </c>
@@ -501,7 +501,7 @@
         <v>1.12254E-2</v>
       </c>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:8" x14ac:dyDescent="0.2">
       <c r="E19">
         <v>250</v>
       </c>
@@ -509,7 +509,7 @@
         <v>8.6800000000000002E-3</v>
       </c>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:8" x14ac:dyDescent="0.2">
       <c r="E20">
         <v>300</v>
       </c>
@@ -517,7 +517,7 @@
         <v>3.1381199999999998E-2</v>
       </c>
     </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:8" x14ac:dyDescent="0.2">
       <c r="E21">
         <v>400</v>
       </c>
@@ -525,7 +525,7 @@
         <v>3.9607000000000003E-2</v>
       </c>
     </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D22">
         <v>3</v>
       </c>
@@ -536,7 +536,7 @@
         <v>9.7339599999999998E-2</v>
       </c>
     </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:8" x14ac:dyDescent="0.2">
       <c r="E23">
         <f>2*E22</f>
         <v>2</v>
@@ -545,7 +545,7 @@
         <v>4.6787200000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:8" x14ac:dyDescent="0.2">
       <c r="E24">
         <f t="shared" ref="E24:E28" si="1">2*E23</f>
         <v>4</v>
@@ -554,7 +554,7 @@
         <v>1.60602E-2</v>
       </c>
     </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:8" x14ac:dyDescent="0.2">
       <c r="E25">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -563,7 +563,7 @@
         <v>1.53752E-2</v>
       </c>
     </row>
-    <row r="26" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:8" x14ac:dyDescent="0.2">
       <c r="E26">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -572,7 +572,7 @@
         <v>1.66334E-2</v>
       </c>
     </row>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:8" x14ac:dyDescent="0.2">
       <c r="E27">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -580,8 +580,12 @@
       <c r="F27" s="1">
         <v>1.7742000000000001E-2</v>
       </c>
-    </row>
-    <row r="28" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H27" s="1">
+        <f>MIN(F22:F36)</f>
+        <v>1.47478E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="4:8" x14ac:dyDescent="0.2">
       <c r="E28">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -590,7 +594,7 @@
         <v>2.3939800000000001E-2</v>
       </c>
     </row>
-    <row r="29" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:8" x14ac:dyDescent="0.2">
       <c r="E29">
         <v>100</v>
       </c>
@@ -598,7 +602,7 @@
         <v>1.4759400000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:8" x14ac:dyDescent="0.2">
       <c r="E30">
         <v>110</v>
       </c>
@@ -606,7 +610,7 @@
         <v>1.47478E-2</v>
       </c>
     </row>
-    <row r="31" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:8" x14ac:dyDescent="0.2">
       <c r="E31">
         <v>128</v>
       </c>
@@ -614,7 +618,7 @@
         <v>1.4885000000000001E-2</v>
       </c>
     </row>
-    <row r="32" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="4:8" x14ac:dyDescent="0.2">
       <c r="E32">
         <v>150</v>
       </c>
@@ -835,22 +839,25 @@
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D55">
+        <v>3</v>
+      </c>
       <c r="E55">
-        <v>1000</v>
+        <v>1</v>
+      </c>
+      <c r="F55" s="1">
+        <v>2902</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
     </row>
     <row r="56" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D56">
-        <v>3</v>
-      </c>
       <c r="E56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F56" s="1">
-        <v>2902</v>
+        <v>359.95631300000002</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
@@ -858,10 +865,10 @@
     </row>
     <row r="57" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E57">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F57" s="1">
-        <v>359.95631300000002</v>
+        <v>228.01516000000001</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
@@ -869,10 +876,10 @@
     </row>
     <row r="58" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E58">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="F58" s="1">
-        <v>228.01516000000001</v>
+        <v>194.46214000000001</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
@@ -880,10 +887,10 @@
     </row>
     <row r="59" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E59">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="F59" s="1">
-        <v>194.46214000000001</v>
+        <v>285.734759</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
@@ -891,21 +898,21 @@
     </row>
     <row r="60" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E60">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="F60" s="1">
-        <v>285.734759</v>
+        <v>496.19373999999999</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
     </row>
     <row r="61" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D61">
+        <v>128</v>
+      </c>
       <c r="E61">
-        <v>200</v>
-      </c>
-      <c r="F61" s="1">
-        <v>496.19373999999999</v>
+        <v>1</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
@@ -913,53 +920,19 @@
     </row>
     <row r="62" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E62">
-        <v>250</v>
+        <v>2</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
     </row>
     <row r="63" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="E63">
-        <v>300</v>
-      </c>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-    </row>
-    <row r="64" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="E64">
-        <v>400</v>
-      </c>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-    </row>
-    <row r="65" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D65">
-        <v>128</v>
-      </c>
-      <c r="E65">
-        <v>1</v>
-      </c>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-    </row>
-    <row r="66" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="E66">
-        <v>2</v>
-      </c>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-    </row>
-    <row r="67" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="E67" t="s">
+      <c r="E63" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>